--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cthrc1-Fzd3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cthrc1-Fzd3.xlsx
@@ -91,7 +91,7 @@
     <t>Fzd3</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
+    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6191033333333333</v>
+        <v>1.324075666666667</v>
       </c>
       <c r="H2">
-        <v>1.85731</v>
+        <v>3.972227</v>
       </c>
       <c r="I2">
-        <v>0.007929637811697733</v>
+        <v>0.01675578032580584</v>
       </c>
       <c r="J2">
-        <v>0.007962490129789305</v>
+        <v>0.01684165790066494</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2078313333333333</v>
+        <v>0.1579376666666667</v>
       </c>
       <c r="N2">
-        <v>0.623494</v>
+        <v>0.473813</v>
       </c>
       <c r="O2">
-        <v>0.08621557350328635</v>
+        <v>0.05467876644486869</v>
       </c>
       <c r="P2">
-        <v>0.112461889302165</v>
+        <v>0.07340983674118848</v>
       </c>
       <c r="Q2">
-        <v>0.1286690712377778</v>
+        <v>0.2091214212834444</v>
       </c>
       <c r="R2">
-        <v>1.15802164114</v>
+        <v>1.882092791551</v>
       </c>
       <c r="S2">
-        <v>0.0006836582716088646</v>
+        <v>0.0009161853990362631</v>
       </c>
       <c r="T2">
-        <v>0.0008954766835459462</v>
+        <v>0.00123634335693876</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6191033333333333</v>
+        <v>1.324075666666667</v>
       </c>
       <c r="H3">
-        <v>1.85731</v>
+        <v>3.972227</v>
       </c>
       <c r="I3">
-        <v>0.007929637811697733</v>
+        <v>0.01675578032580584</v>
       </c>
       <c r="J3">
-        <v>0.007962490129789305</v>
+        <v>0.01684165790066494</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.494381</v>
       </c>
       <c r="O3">
-        <v>0.206640184103479</v>
+        <v>0.1724539210166233</v>
       </c>
       <c r="P3">
-        <v>0.2695469573039334</v>
+        <v>0.2315307204300726</v>
       </c>
       <c r="Q3">
-        <v>0.3083920861233334</v>
+        <v>0.6595578396096667</v>
       </c>
       <c r="R3">
-        <v>2.77552877511</v>
+        <v>5.936020556487001</v>
       </c>
       <c r="S3">
-        <v>0.001638581817283128</v>
+        <v>0.00288960001687841</v>
       </c>
       <c r="T3">
-        <v>0.002146264987047309</v>
+        <v>0.003899361186977777</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6191033333333333</v>
+        <v>1.324075666666667</v>
       </c>
       <c r="H4">
-        <v>1.85731</v>
+        <v>3.972227</v>
       </c>
       <c r="I4">
-        <v>0.007929637811697733</v>
+        <v>0.01675578032580584</v>
       </c>
       <c r="J4">
-        <v>0.007962490129789305</v>
+        <v>0.01684165790066494</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.6877555</v>
+        <v>0.02135966666666667</v>
       </c>
       <c r="N4">
-        <v>3.375511</v>
+        <v>0.064079</v>
       </c>
       <c r="O4">
-        <v>0.7001389349335798</v>
+        <v>0.00739481752299059</v>
       </c>
       <c r="P4">
-        <v>0.6088532438487625</v>
+        <v>0.0099280284174107</v>
       </c>
       <c r="Q4">
-        <v>1.044895055901667</v>
+        <v>0.02828181488144444</v>
       </c>
       <c r="R4">
-        <v>6.269370335410001</v>
+        <v>0.254536333933</v>
       </c>
       <c r="S4">
-        <v>0.005551848171891093</v>
+        <v>0.00012390593796465</v>
       </c>
       <c r="T4">
-        <v>0.004847987944635973</v>
+        <v>0.0001672044582341109</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6191033333333333</v>
+        <v>1.324075666666667</v>
       </c>
       <c r="H5">
-        <v>1.85731</v>
+        <v>3.972227</v>
       </c>
       <c r="I5">
-        <v>0.007929637811697733</v>
+        <v>0.01675578032580584</v>
       </c>
       <c r="J5">
-        <v>0.007962490129789305</v>
+        <v>0.01684165790066494</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.016887</v>
+        <v>2.21104</v>
       </c>
       <c r="N5">
-        <v>0.050661</v>
+        <v>4.422079999999999</v>
       </c>
       <c r="O5">
-        <v>0.007005307459654769</v>
+        <v>0.7654724950155174</v>
       </c>
       <c r="P5">
-        <v>0.009137909545139137</v>
+        <v>0.6851314144113283</v>
       </c>
       <c r="Q5">
-        <v>0.01045479799</v>
+        <v>2.927584262026666</v>
       </c>
       <c r="R5">
-        <v>0.09409318191</v>
+        <v>17.56550557216</v>
       </c>
       <c r="S5">
-        <v>5.554955091464664E-05</v>
+        <v>0.01282608897192651</v>
       </c>
       <c r="T5">
-        <v>7.276051456007786E-05</v>
+        <v>0.01153874889851429</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>229.467361</v>
       </c>
       <c r="I6">
-        <v>0.9796927073757713</v>
+        <v>0.9679468703219594</v>
       </c>
       <c r="J6">
-        <v>0.9837515530909214</v>
+        <v>0.9729078406975189</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2078313333333333</v>
+        <v>0.1579376666666667</v>
       </c>
       <c r="N6">
-        <v>0.623494</v>
+        <v>0.473813</v>
       </c>
       <c r="O6">
-        <v>0.08621557350328635</v>
+        <v>0.05467876644486869</v>
       </c>
       <c r="P6">
-        <v>0.112461889302165</v>
+        <v>0.07340983674118848</v>
       </c>
       <c r="Q6">
-        <v>15.89683586437044</v>
+        <v>12.08051319083255</v>
       </c>
       <c r="R6">
-        <v>143.071522779334</v>
+        <v>108.724618717493</v>
       </c>
       <c r="S6">
-        <v>0.08446476862338942</v>
+        <v>0.05292614085337601</v>
       </c>
       <c r="T6">
-        <v>0.1106345582645441</v>
+        <v>0.07142100574982707</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>229.467361</v>
       </c>
       <c r="I7">
-        <v>0.9796927073757713</v>
+        <v>0.9679468703219594</v>
       </c>
       <c r="J7">
-        <v>0.9837515530909214</v>
+        <v>0.9729078406975189</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>1.494381</v>
       </c>
       <c r="O7">
-        <v>0.206640184103479</v>
+        <v>0.1724539210166233</v>
       </c>
       <c r="P7">
-        <v>0.2695469573039334</v>
+        <v>0.2315307204300726</v>
       </c>
       <c r="Q7">
         <v>38.10129604428234</v>
       </c>
       <c r="R7">
-        <v>342.9116643985411</v>
+        <v>342.911664398541</v>
       </c>
       <c r="S7">
-        <v>0.2024438814169652</v>
+        <v>0.1669262331227909</v>
       </c>
       <c r="T7">
-        <v>0.2651672378786768</v>
+        <v>0.2252580532687628</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,40 +915,40 @@
         <v>229.467361</v>
       </c>
       <c r="I8">
-        <v>0.9796927073757713</v>
+        <v>0.9679468703219594</v>
       </c>
       <c r="J8">
-        <v>0.9837515530909214</v>
+        <v>0.9729078406975189</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.6877555</v>
+        <v>0.02135966666666667</v>
       </c>
       <c r="N8">
-        <v>3.375511</v>
+        <v>0.064079</v>
       </c>
       <c r="O8">
-        <v>0.7001389349335798</v>
+        <v>0.00739481752299059</v>
       </c>
       <c r="P8">
-        <v>0.6088532438487625</v>
+        <v>0.0099280284174107</v>
       </c>
       <c r="Q8">
-        <v>129.0949335327452</v>
+        <v>1.633782113946555</v>
       </c>
       <c r="R8">
-        <v>774.5696011964711</v>
+        <v>14.704039025519</v>
       </c>
       <c r="S8">
-        <v>0.6859210087042678</v>
+        <v>0.007157790477980725</v>
       </c>
       <c r="T8">
-        <v>0.5989603242406656</v>
+        <v>0.009659056689966651</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,40 +977,40 @@
         <v>229.467361</v>
       </c>
       <c r="I9">
-        <v>0.9796927073757713</v>
+        <v>0.9679468703219594</v>
       </c>
       <c r="J9">
-        <v>0.9837515530909214</v>
+        <v>0.9729078406975189</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.016887</v>
+        <v>2.21104</v>
       </c>
       <c r="N9">
-        <v>0.050661</v>
+        <v>4.422079999999999</v>
       </c>
       <c r="O9">
-        <v>0.007005307459654769</v>
+        <v>0.7654724950155174</v>
       </c>
       <c r="P9">
-        <v>0.009137909545139137</v>
+        <v>0.6851314144113283</v>
       </c>
       <c r="Q9">
-        <v>1.291671775069</v>
+        <v>169.1205046218133</v>
       </c>
       <c r="R9">
-        <v>11.625045975621</v>
+        <v>1014.72302773088</v>
       </c>
       <c r="S9">
-        <v>0.006863048631148868</v>
+        <v>0.7409367058678117</v>
       </c>
       <c r="T9">
-        <v>0.008989432707034981</v>
+        <v>0.6665697249889624</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9663804999999999</v>
+        <v>1.2088275</v>
       </c>
       <c r="H10">
-        <v>1.932761</v>
+        <v>2.417655</v>
       </c>
       <c r="I10">
-        <v>0.01237765481253107</v>
+        <v>0.0152973493522347</v>
       </c>
       <c r="J10">
-        <v>0.008285956779289243</v>
+        <v>0.01025050140181618</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2078313333333333</v>
+        <v>0.1579376666666667</v>
       </c>
       <c r="N10">
-        <v>0.623494</v>
+        <v>0.473813</v>
       </c>
       <c r="O10">
-        <v>0.08621557350328635</v>
+        <v>0.05467876644486869</v>
       </c>
       <c r="P10">
-        <v>0.112461889302165</v>
+        <v>0.07340983674118848</v>
       </c>
       <c r="Q10">
-        <v>0.2008441478223333</v>
+        <v>0.1909193947525</v>
       </c>
       <c r="R10">
-        <v>1.205064886934</v>
+        <v>1.145516368515</v>
       </c>
       <c r="S10">
-        <v>0.001067146608288078</v>
+        <v>0.0008364401924564043</v>
       </c>
       <c r="T10">
-        <v>0.0009318543540749503</v>
+        <v>0.0007524876344226496</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9663804999999999</v>
+        <v>1.2088275</v>
       </c>
       <c r="H11">
-        <v>1.932761</v>
+        <v>2.417655</v>
       </c>
       <c r="I11">
-        <v>0.01237765481253107</v>
+        <v>0.0152973493522347</v>
       </c>
       <c r="J11">
-        <v>0.008285956779289243</v>
+        <v>0.01025050140181618</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.494381</v>
       </c>
       <c r="O11">
-        <v>0.206640184103479</v>
+        <v>0.1724539210166233</v>
       </c>
       <c r="P11">
-        <v>0.2695469573039334</v>
+        <v>0.2315307204300726</v>
       </c>
       <c r="Q11">
-        <v>0.4813802193234999</v>
+        <v>0.6021496160925001</v>
       </c>
       <c r="R11">
-        <v>2.888281315941</v>
+        <v>3.612897696555</v>
       </c>
       <c r="S11">
-        <v>0.002557720869230733</v>
+        <v>0.002638087876953975</v>
       </c>
       <c r="T11">
-        <v>0.002233454438209315</v>
+        <v>0.00237330597433197</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,7 +1148,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.9663804999999999</v>
+        <v>1.2088275</v>
       </c>
       <c r="H12">
-        <v>1.932761</v>
+        <v>2.417655</v>
       </c>
       <c r="I12">
-        <v>0.01237765481253107</v>
+        <v>0.0152973493522347</v>
       </c>
       <c r="J12">
-        <v>0.008285956779289243</v>
+        <v>0.01025050140181618</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>1.6877555</v>
+        <v>0.02135966666666667</v>
       </c>
       <c r="N12">
-        <v>3.375511</v>
+        <v>0.064079</v>
       </c>
       <c r="O12">
-        <v>0.7001389349335798</v>
+        <v>0.00739481752299059</v>
       </c>
       <c r="P12">
-        <v>0.6088532438487625</v>
+        <v>0.0099280284174107</v>
       </c>
       <c r="Q12">
-        <v>1.63101400396775</v>
+        <v>0.0258201524575</v>
       </c>
       <c r="R12">
-        <v>6.524056015870999</v>
+        <v>0.154920914745</v>
       </c>
       <c r="S12">
-        <v>0.008666078057421001</v>
+        <v>0.0001131211070452139</v>
       </c>
       <c r="T12">
-        <v>0.0050449316634609</v>
+        <v>0.0001017672692099393</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,7 +1210,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.9663804999999999</v>
+        <v>1.2088275</v>
       </c>
       <c r="H13">
-        <v>1.932761</v>
+        <v>2.417655</v>
       </c>
       <c r="I13">
-        <v>0.01237765481253107</v>
+        <v>0.0152973493522347</v>
       </c>
       <c r="J13">
-        <v>0.008285956779289243</v>
+        <v>0.01025050140181618</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.016887</v>
+        <v>2.21104</v>
       </c>
       <c r="N13">
-        <v>0.050661</v>
+        <v>4.422079999999999</v>
       </c>
       <c r="O13">
-        <v>0.007005307459654769</v>
+        <v>0.7654724950155174</v>
       </c>
       <c r="P13">
-        <v>0.009137909545139137</v>
+        <v>0.6851314144113283</v>
       </c>
       <c r="Q13">
-        <v>0.0163192675035</v>
+        <v>2.6727659556</v>
       </c>
       <c r="R13">
-        <v>0.097915605021</v>
+        <v>10.6910638224</v>
       </c>
       <c r="S13">
-        <v>8.670927759125565E-05</v>
+        <v>0.0117097001757791</v>
       </c>
       <c r="T13">
-        <v>7.571632354407751E-05</v>
+        <v>0.007022940523851625</v>
       </c>
     </row>
   </sheetData>
